--- a/invoices.xlsx
+++ b/invoices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Projects\Invoice_Submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C61C02-48C2-4B6B-B796-E1E3E3BFF4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDA8163-1928-4BBE-8655-BB95248CD30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{87F84A00-DA4B-47E5-ACDC-F727416AE4E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4B06604C-E235-4513-BE90-65BC7826DC30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>PO</t>
   </si>
@@ -50,148 +50,141 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2ALK3VYJ</t>
-  </si>
-  <si>
-    <t>597UIWFQ</t>
-  </si>
-  <si>
-    <t>6KOUOVWZ</t>
-  </si>
-  <si>
-    <t>6UERIWTC</t>
-  </si>
-  <si>
-    <t>5OMHMD7M</t>
-  </si>
-  <si>
-    <t>2DTUP8XK</t>
-  </si>
-  <si>
-    <t>7OXZMF2C</t>
-  </si>
-  <si>
-    <t>4GVT4OLV</t>
-  </si>
-  <si>
-    <t>5JNYR9WQ</t>
-  </si>
-  <si>
-    <t>6BAM89CC</t>
-  </si>
-  <si>
-    <t>52FDE1WO</t>
-  </si>
-  <si>
-    <t>2BZ4453V</t>
-  </si>
-  <si>
-    <t>57NV2L1E</t>
-  </si>
-  <si>
-    <t>5BYXJDNO</t>
-  </si>
-  <si>
-    <t>5NDHYHMU</t>
-  </si>
-  <si>
-    <t>4KSP1QTT</t>
-  </si>
-  <si>
-    <t>5X4AW9AD</t>
-  </si>
-  <si>
-    <t>8CHLXGLD</t>
-  </si>
-  <si>
-    <t>4NIUSGTX</t>
-  </si>
-  <si>
-    <t>4LVGW7HC</t>
-  </si>
-  <si>
-    <t>55CVULFM</t>
-  </si>
-  <si>
-    <t>4LYVC5FL</t>
-  </si>
-  <si>
-    <t>3ZFGD4JV</t>
-  </si>
-  <si>
-    <t>57SFEXKY</t>
-  </si>
-  <si>
-    <t>44PHMKSA</t>
-  </si>
-  <si>
-    <t>16R74OWR</t>
-  </si>
-  <si>
-    <t>5QB1G25S</t>
-  </si>
-  <si>
-    <t>431YQQCA</t>
-  </si>
-  <si>
-    <t>4VZO3CWO</t>
-  </si>
-  <si>
-    <t>5N8XM53A</t>
-  </si>
-  <si>
-    <t>6OP61W3G</t>
-  </si>
-  <si>
-    <t>453ASILU</t>
-  </si>
-  <si>
-    <t>63A1J8ZO</t>
-  </si>
-  <si>
-    <t>6RBWDO5B</t>
-  </si>
-  <si>
-    <t>4N4O8QFL</t>
-  </si>
-  <si>
-    <t>29TKD8RD</t>
-  </si>
-  <si>
-    <t>6JRFI5FT</t>
-  </si>
-  <si>
-    <t>5T8JWLNQ</t>
-  </si>
-  <si>
-    <t>5IRFO96Q</t>
-  </si>
-  <si>
-    <t>4ZKSCKWU</t>
-  </si>
-  <si>
-    <t>571FOADS</t>
-  </si>
-  <si>
-    <t>6U3ZE5DZ</t>
-  </si>
-  <si>
-    <t>5WCB6L3X</t>
-  </si>
-  <si>
-    <t>44BB2UEO</t>
-  </si>
-  <si>
-    <t>5ER5C8ZJ</t>
+    <t>43WLPVDL</t>
+  </si>
+  <si>
+    <t>436DH1YK</t>
+  </si>
+  <si>
+    <t>7OW9FM8V</t>
+  </si>
+  <si>
+    <t>71OFVMOC</t>
+  </si>
+  <si>
+    <t>4S24577Q</t>
+  </si>
+  <si>
+    <t>89FCQ2IQ</t>
+  </si>
+  <si>
+    <t>19DR2YXR</t>
+  </si>
+  <si>
+    <t>3FW9R86B</t>
+  </si>
+  <si>
+    <t>7Q5GR66E</t>
+  </si>
+  <si>
+    <t>2FAHWU1B</t>
+  </si>
+  <si>
+    <t>1R5CBYML</t>
+  </si>
+  <si>
+    <t>2KCIKEAP</t>
+  </si>
+  <si>
+    <t>1P9J91WN</t>
+  </si>
+  <si>
+    <t>1AB3HCBA</t>
+  </si>
+  <si>
+    <t>43S7UYDG</t>
+  </si>
+  <si>
+    <t>3RC9W7OR</t>
+  </si>
+  <si>
+    <t>8E2X5C6P</t>
+  </si>
+  <si>
+    <t>1BXUCRPL</t>
+  </si>
+  <si>
+    <t>1KF5ERGK</t>
+  </si>
+  <si>
+    <t>4O6ICGUF</t>
+  </si>
+  <si>
+    <t>3A6CTK2P</t>
+  </si>
+  <si>
+    <t>6XUXMD5P</t>
+  </si>
+  <si>
+    <t>2NCJ41FW</t>
+  </si>
+  <si>
+    <t>4FS637PD</t>
+  </si>
+  <si>
+    <t>5CFMPFSM</t>
+  </si>
+  <si>
+    <t>46JD2NFG</t>
+  </si>
+  <si>
+    <t>42TTUFPC</t>
+  </si>
+  <si>
+    <t>1O4NLZ6O</t>
+  </si>
+  <si>
+    <t>83OSYR2F</t>
+  </si>
+  <si>
+    <t>1QQEXR8J</t>
+  </si>
+  <si>
+    <t>5DW7JVEZ</t>
+  </si>
+  <si>
+    <t>46W4MW8U</t>
+  </si>
+  <si>
+    <t>52HSQ34F</t>
+  </si>
+  <si>
+    <t>1X2OHQZI</t>
+  </si>
+  <si>
+    <t>4BY912ZU</t>
+  </si>
+  <si>
+    <t>5T2DOL1U</t>
+  </si>
+  <si>
+    <t>3DUV1RRT</t>
+  </si>
+  <si>
+    <t>2V6LG4CO</t>
+  </si>
+  <si>
+    <t>75S44XQV</t>
+  </si>
+  <si>
+    <t>3P1AP83Z</t>
+  </si>
+  <si>
+    <t>4H6P3FTP</t>
+  </si>
+  <si>
+    <t>1GPM7JQG</t>
+  </si>
+  <si>
+    <t>4AF9JQLI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -222,10 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,32 +551,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5B155-ACA7-4905-8403-4F1E50032D22}">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F14866-881E-4F10-A9C7-9599830C752B}">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -592,630 +581,602 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>45554</v>
+      <c r="B2" s="1">
+        <v>45631</v>
       </c>
       <c r="C2">
-        <v>9474</v>
-      </c>
-      <c r="D2" s="1">
-        <v>415.8</v>
+        <v>9668</v>
+      </c>
+      <c r="D2">
+        <v>1791.3600000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>45554</v>
+      <c r="B3" s="1">
+        <v>45631</v>
       </c>
       <c r="C3">
-        <v>9475</v>
-      </c>
-      <c r="D3" s="1">
-        <v>217.8</v>
+        <v>9669</v>
+      </c>
+      <c r="D3">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>45554</v>
+      <c r="B4" s="1">
+        <v>45631</v>
       </c>
       <c r="C4">
-        <v>9476</v>
-      </c>
-      <c r="D4" s="1">
-        <v>140</v>
+        <v>9670</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>45554</v>
+      <c r="B5" s="1">
+        <v>45631</v>
       </c>
       <c r="C5">
-        <v>9477</v>
-      </c>
-      <c r="D5" s="1">
-        <v>31.79</v>
+        <v>9671</v>
+      </c>
+      <c r="D5">
+        <v>41.25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>45554</v>
+      <c r="B6" s="1">
+        <v>45631</v>
       </c>
       <c r="C6">
-        <v>9478</v>
-      </c>
-      <c r="D6" s="1">
-        <v>119.78999999999999</v>
+        <v>9672</v>
+      </c>
+      <c r="D6">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
-        <v>45554</v>
+      <c r="B7" s="1">
+        <v>45631</v>
       </c>
       <c r="C7">
-        <v>9479</v>
-      </c>
-      <c r="D7" s="1">
-        <v>282.7</v>
+        <v>9673</v>
+      </c>
+      <c r="D7">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>45554</v>
+      <c r="B8" s="1">
+        <v>45631</v>
       </c>
       <c r="C8">
-        <v>9480</v>
-      </c>
-      <c r="D8" s="1">
-        <v>184.8</v>
+        <v>9674</v>
+      </c>
+      <c r="D8">
+        <v>480.29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
-        <v>45554</v>
+      <c r="B9" s="1">
+        <v>45631</v>
       </c>
       <c r="C9">
-        <v>9481</v>
-      </c>
-      <c r="D9" s="1">
-        <v>349.8</v>
+        <v>9675</v>
+      </c>
+      <c r="D9">
+        <v>416.25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>45554</v>
+      <c r="B10" s="1">
+        <v>45631</v>
       </c>
       <c r="C10">
-        <v>9482</v>
-      </c>
-      <c r="D10" s="1">
-        <v>108.68</v>
+        <v>9676</v>
+      </c>
+      <c r="D10">
+        <v>446.46000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>45554</v>
+      <c r="B11" s="1">
+        <v>45631</v>
       </c>
       <c r="C11">
-        <v>9483</v>
-      </c>
-      <c r="D11" s="1">
-        <v>63.58</v>
+        <v>9677</v>
+      </c>
+      <c r="D11">
+        <v>174.62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
-        <v>45554</v>
+      <c r="B12" s="1">
+        <v>45631</v>
       </c>
       <c r="C12">
-        <v>9484</v>
-      </c>
-      <c r="D12" s="1">
-        <v>271.59000000000003</v>
+        <v>9678</v>
+      </c>
+      <c r="D12">
+        <v>371.8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
-        <v>45554</v>
+      <c r="B13" s="1">
+        <v>45631</v>
       </c>
       <c r="C13">
-        <v>9485</v>
-      </c>
-      <c r="D13" s="1">
-        <v>108.68</v>
+        <v>9679</v>
+      </c>
+      <c r="D13">
+        <v>309.36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
-        <v>45554</v>
+      <c r="B14" s="1">
+        <v>45631</v>
       </c>
       <c r="C14">
-        <v>9486</v>
-      </c>
-      <c r="D14" s="1">
-        <v>102.6</v>
+        <v>9680</v>
+      </c>
+      <c r="D14">
+        <v>360.92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
-        <v>45554</v>
+      <c r="B15" s="1">
+        <v>45631</v>
       </c>
       <c r="C15">
-        <v>9487</v>
-      </c>
-      <c r="D15" s="1">
-        <v>100</v>
+        <v>9681</v>
+      </c>
+      <c r="D15">
+        <v>692.92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
-        <v>45554</v>
+      <c r="B16" s="1">
+        <v>45631</v>
       </c>
       <c r="C16">
-        <v>9488</v>
-      </c>
-      <c r="D16" s="1">
-        <v>39.75</v>
+        <v>9682</v>
+      </c>
+      <c r="D16">
+        <v>272.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
-        <v>45554</v>
+      <c r="B17" s="1">
+        <v>45631</v>
       </c>
       <c r="C17">
-        <v>9489</v>
-      </c>
-      <c r="D17" s="1">
-        <v>104.5</v>
+        <v>9683</v>
+      </c>
+      <c r="D17">
+        <v>122.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <v>45554</v>
+      <c r="B18" s="1">
+        <v>45631</v>
       </c>
       <c r="C18">
-        <v>9490</v>
-      </c>
-      <c r="D18" s="1">
-        <v>16.52</v>
+        <v>9684</v>
+      </c>
+      <c r="D18">
+        <v>1345.29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
-        <v>45554</v>
+      <c r="B19" s="1">
+        <v>45631</v>
       </c>
       <c r="C19">
-        <v>9491</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8.26</v>
+        <v>9685</v>
+      </c>
+      <c r="D19">
+        <v>226.9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
-        <v>45554</v>
+      <c r="B20" s="1">
+        <v>45631</v>
       </c>
       <c r="C20">
-        <v>9492</v>
-      </c>
-      <c r="D20" s="1">
-        <v>17.13</v>
+        <v>9686</v>
+      </c>
+      <c r="D20">
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
-        <v>45554</v>
+      <c r="B21" s="1">
+        <v>45631</v>
       </c>
       <c r="C21">
-        <v>9493</v>
-      </c>
-      <c r="D21" s="1">
-        <v>150</v>
+        <v>9687</v>
+      </c>
+      <c r="D21">
+        <v>515.6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
-        <v>45554</v>
+      <c r="B22" s="1">
+        <v>45631</v>
       </c>
       <c r="C22">
-        <v>9494</v>
-      </c>
-      <c r="D22" s="1">
-        <v>71.44</v>
+        <v>9688</v>
+      </c>
+      <c r="D22">
+        <v>850.74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2">
-        <v>45554</v>
+      <c r="B23" s="1">
+        <v>45631</v>
       </c>
       <c r="C23">
-        <v>9495</v>
-      </c>
-      <c r="D23" s="1">
-        <v>435.6</v>
+        <v>9689</v>
+      </c>
+      <c r="D23">
+        <v>143.30000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
-        <v>45554</v>
+      <c r="B24" s="1">
+        <v>45631</v>
       </c>
       <c r="C24">
-        <v>9496</v>
-      </c>
-      <c r="D24" s="1">
-        <v>357</v>
+        <v>9690</v>
+      </c>
+      <c r="D24">
+        <v>973.63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2">
-        <v>45554</v>
+      <c r="B25" s="1">
+        <v>45631</v>
       </c>
       <c r="C25">
-        <v>9497</v>
-      </c>
-      <c r="D25" s="1">
-        <v>73.919999999999987</v>
+        <v>9691</v>
+      </c>
+      <c r="D25">
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2">
-        <v>45554</v>
+      <c r="B26" s="1">
+        <v>45631</v>
       </c>
       <c r="C26">
-        <v>9498</v>
-      </c>
-      <c r="D26" s="1">
-        <v>316.52</v>
+        <v>9692</v>
+      </c>
+      <c r="D26">
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2">
-        <v>45554</v>
+      <c r="B27" s="1">
+        <v>45631</v>
       </c>
       <c r="C27">
-        <v>9499</v>
-      </c>
-      <c r="D27" s="1">
-        <v>510</v>
+        <v>9693</v>
+      </c>
+      <c r="D27">
+        <v>373.75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2">
-        <v>45554</v>
+      <c r="B28" s="1">
+        <v>45631</v>
       </c>
       <c r="C28">
-        <v>9500</v>
-      </c>
-      <c r="D28" s="1">
-        <v>31.79</v>
+        <v>9694</v>
+      </c>
+      <c r="D28">
+        <v>981.55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2">
-        <v>45554</v>
+      <c r="B29" s="1">
+        <v>45631</v>
       </c>
       <c r="C29">
-        <v>9501</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
+        <v>9695</v>
+      </c>
+      <c r="D29">
+        <v>127.16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2">
-        <v>45554</v>
+      <c r="B30" s="1">
+        <v>45631</v>
       </c>
       <c r="C30">
-        <v>9502</v>
-      </c>
-      <c r="D30" s="1">
-        <v>115.5</v>
+        <v>9696</v>
+      </c>
+      <c r="D30">
+        <v>72.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2">
-        <v>45554</v>
+      <c r="B31" s="1">
+        <v>45631</v>
       </c>
       <c r="C31">
-        <v>9503</v>
-      </c>
-      <c r="D31" s="1">
-        <v>240</v>
+        <v>9697</v>
+      </c>
+      <c r="D31">
+        <v>158.30000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2">
-        <v>45554</v>
+      <c r="B32" s="1">
+        <v>45631</v>
       </c>
       <c r="C32">
-        <v>9504</v>
-      </c>
-      <c r="D32" s="1">
-        <v>62</v>
+        <v>9698</v>
+      </c>
+      <c r="D32">
+        <v>222.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="2">
-        <v>45554</v>
+      <c r="B33" s="1">
+        <v>45631</v>
       </c>
       <c r="C33">
-        <v>9505</v>
-      </c>
-      <c r="D33" s="1">
-        <v>470</v>
+        <v>9699</v>
+      </c>
+      <c r="D33">
+        <v>464.04</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2">
-        <v>45554</v>
+      <c r="B34" s="1">
+        <v>45631</v>
       </c>
       <c r="C34">
-        <v>9506</v>
-      </c>
-      <c r="D34" s="1">
-        <v>450</v>
+        <v>9700</v>
+      </c>
+      <c r="D34">
+        <v>747.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="2">
-        <v>45554</v>
+      <c r="B35" s="1">
+        <v>45631</v>
       </c>
       <c r="C35">
-        <v>9507</v>
-      </c>
-      <c r="D35" s="1">
-        <v>62</v>
+        <v>9701</v>
+      </c>
+      <c r="D35">
+        <v>122.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="2">
-        <v>45554</v>
+      <c r="B36" s="1">
+        <v>45631</v>
       </c>
       <c r="C36">
-        <v>9508</v>
-      </c>
-      <c r="D36" s="1">
-        <v>191.42</v>
+        <v>9702</v>
+      </c>
+      <c r="D36">
+        <v>916.88999999999987</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="2">
-        <v>45554</v>
+      <c r="B37" s="1">
+        <v>45631</v>
       </c>
       <c r="C37">
-        <v>9509</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
+        <v>9703</v>
+      </c>
+      <c r="D37">
+        <v>575.95000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="2">
-        <v>45554</v>
+      <c r="B38" s="1">
+        <v>45631</v>
       </c>
       <c r="C38">
-        <v>9510</v>
-      </c>
-      <c r="D38" s="1">
-        <v>108.68</v>
+        <v>9704</v>
+      </c>
+      <c r="D38">
+        <v>180.46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="2">
-        <v>45554</v>
+      <c r="B39" s="1">
+        <v>45631</v>
       </c>
       <c r="C39">
-        <v>9511</v>
-      </c>
-      <c r="D39" s="1">
-        <v>114</v>
+        <v>9705</v>
+      </c>
+      <c r="D39">
+        <v>232.02</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2">
-        <v>45554</v>
+      <c r="B40" s="1">
+        <v>45631</v>
       </c>
       <c r="C40">
-        <v>9512</v>
-      </c>
-      <c r="D40" s="1">
-        <v>130</v>
+        <v>9706</v>
+      </c>
+      <c r="D40">
+        <v>16.46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="2">
-        <v>45554</v>
+      <c r="B41" s="1">
+        <v>45631</v>
       </c>
       <c r="C41">
-        <v>9513</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
+        <v>9707</v>
+      </c>
+      <c r="D41">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="2">
-        <v>45554</v>
+      <c r="B42" s="1">
+        <v>45631</v>
       </c>
       <c r="C42">
-        <v>9514</v>
-      </c>
-      <c r="D42" s="1">
-        <v>434.72</v>
+        <v>9708</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="2">
-        <v>45554</v>
+      <c r="B43" s="1">
+        <v>45631</v>
       </c>
       <c r="C43">
-        <v>9515</v>
-      </c>
-      <c r="D43" s="1">
-        <v>405.54</v>
+        <v>9709</v>
+      </c>
+      <c r="D43">
+        <v>217.8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="2">
-        <v>45554</v>
+      <c r="B44" s="1">
+        <v>45631</v>
       </c>
       <c r="C44">
-        <v>9516</v>
-      </c>
-      <c r="D44" s="1">
-        <v>108.68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45554</v>
-      </c>
-      <c r="C45">
-        <v>9517</v>
-      </c>
-      <c r="D45" s="1">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45554</v>
-      </c>
-      <c r="C46">
-        <v>9518</v>
-      </c>
-      <c r="D46" s="1">
-        <v>62</v>
+        <v>9710</v>
+      </c>
+      <c r="D44">
+        <v>831.02</v>
       </c>
     </row>
   </sheetData>
